--- a/4_Test Plan/Test.xlsx
+++ b/4_Test Plan/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soura\Documents\GitHub\Final-Submission\4.Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soura\Documents\GitHub\Final-Submission\4_Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85860539-A2A7-4A86-94FE-D792BBB409C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5253932-7773-45DA-BD8F-3A795D3A2473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17850" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +459,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,255 +496,255 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>55</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/4_Test Plan/Test.xlsx
+++ b/4_Test Plan/Test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soura\Documents\GitHub\Final-Submission\4_Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Documents\GitHub\Final-Submission\4_Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5253932-7773-45DA-BD8F-3A795D3A2473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="375" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Test Case</t>
   </si>
@@ -133,12 +132,15 @@
   </si>
   <si>
     <t>LOG10</t>
+  </si>
+  <si>
+    <t>65000 65000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,13 +170,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,25 +547,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -574,14 +579,14 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="1">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -589,22 +594,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -621,13 +626,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -635,22 +640,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -658,22 +663,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -681,22 +686,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -704,22 +709,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -727,26 +732,52 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4_Test Plan/Test.xlsx
+++ b/4_Test Plan/Test.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/4_Test Plan/Test.xlsx
+++ b/4_Test Plan/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Test Case</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>H1_LL1</t>
-  </si>
-  <si>
     <t>2 5</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>-1 5</t>
   </si>
   <si>
-    <t>H1_LL2</t>
-  </si>
-  <si>
     <t>SUB</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>-7  8</t>
   </si>
   <si>
-    <t>H1_LL3</t>
-  </si>
-  <si>
     <t>Program needs to work with defined functions for Add</t>
   </si>
   <si>
@@ -98,43 +89,64 @@
     <t>error</t>
   </si>
   <si>
-    <t>H2_LL1</t>
-  </si>
-  <si>
     <t>Program needs to work with defined &lt;math.h&gt; library</t>
   </si>
   <si>
     <t>POW</t>
   </si>
   <si>
-    <t>H2_LL2</t>
-  </si>
-  <si>
     <t>ROOT</t>
   </si>
   <si>
     <t>9 2</t>
   </si>
   <si>
-    <t>H2_LL3</t>
-  </si>
-  <si>
     <t>FACTORIAL</t>
   </si>
   <si>
-    <t>H2_LL4</t>
-  </si>
-  <si>
     <t>LOGe</t>
   </si>
   <si>
-    <t>H2_LL5</t>
-  </si>
-  <si>
     <t>LOG10</t>
   </si>
   <si>
     <t>65000 65000</t>
+  </si>
+  <si>
+    <t>H2_LL7_2</t>
+  </si>
+  <si>
+    <t>H2_LL7_1</t>
+  </si>
+  <si>
+    <t>H1_LL1_1</t>
+  </si>
+  <si>
+    <t>H1_LL1_2</t>
+  </si>
+  <si>
+    <t>H1_LL1_3</t>
+  </si>
+  <si>
+    <t>H1_LL2_1</t>
+  </si>
+  <si>
+    <t>H1_LL2_2</t>
+  </si>
+  <si>
+    <t>H1_LL3_1</t>
+  </si>
+  <si>
+    <t>H1_LL3_2</t>
+  </si>
+  <si>
+    <t>H2_LL5_1</t>
+  </si>
+  <si>
+    <t>H2_LL6_1</t>
+  </si>
+  <si>
+    <t>H4_LL8_1</t>
   </si>
 </sst>
 </file>
@@ -461,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A1:G13"/>
@@ -502,16 +514,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
@@ -520,21 +532,21 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -543,21 +555,21 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>130000</v>
@@ -566,21 +578,21 @@
         <v>130000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -589,21 +601,21 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>-15</v>
@@ -612,21 +624,21 @@
         <v>-15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -635,44 +647,44 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -681,21 +693,21 @@
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -704,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,72 +724,72 @@
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
-        <v>24</v>
-      </c>
       <c r="F11" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
